--- a/VtaDFarma.xlsx
+++ b/VtaDFarma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProcesamientoComputacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E405524-FBA0-4969-A6A4-218172559BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807FCC3-42EF-49EC-ADED-81625C89B911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8019B41C-9707-4998-9072-EFC19A151904}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$2028</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$C$2027</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,10 +51,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +88,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,15 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB794C-3964-4B11-BD97-AC746C428414}">
-  <dimension ref="A1:C2029"/>
+  <dimension ref="A1:C2028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -451,7 +463,7 @@
       <c r="B2" s="2">
         <v>191853236</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -13399,3272 +13411,3265 @@
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1621" s="4">
-        <v>45169</v>
+        <v>45174</v>
       </c>
       <c r="B1621" s="2">
-        <v>155576058782</v>
+        <v>655153541</v>
       </c>
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1622" s="4">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B1622" s="2">
-        <v>655153541</v>
+        <v>838883279</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1623" s="4">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B1623" s="2">
-        <v>838883279</v>
+        <v>766288040</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1624" s="4">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="B1624" s="2">
-        <v>766288040</v>
+        <v>438725279</v>
       </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1625" s="4">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B1625" s="2">
-        <v>438725279</v>
+        <v>349246196</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1626" s="4">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B1626" s="2">
-        <v>349246196</v>
+        <v>293963738</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1627" s="4">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B1627" s="2">
-        <v>293963738</v>
+        <v>476756023</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1628" s="4">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="B1628" s="2">
-        <v>476756023</v>
+        <v>421304360</v>
       </c>
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1629" s="4">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B1629" s="2">
-        <v>421304360</v>
+        <v>410740675</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1630" s="4">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B1630" s="2">
-        <v>410740675</v>
+        <v>435245613</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1631" s="4">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B1631" s="2">
-        <v>435245613</v>
+        <v>516272738</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1632" s="4">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B1632" s="2">
-        <v>516272738</v>
+        <v>393203121</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1633" s="4">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B1633" s="2">
-        <v>393203121</v>
+        <v>332074645</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1634" s="4">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B1634" s="2">
-        <v>332074645</v>
+        <v>242712213</v>
       </c>
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1635" s="4">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B1635" s="2">
-        <v>242712213</v>
+        <v>305738026</v>
       </c>
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1636" s="4">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B1636" s="2">
-        <v>305738026</v>
+        <v>490330958</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1637" s="4">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B1637" s="2">
-        <v>490330958</v>
+        <v>376675181</v>
       </c>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1638" s="4">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B1638" s="2">
-        <v>376675181</v>
+        <v>342647080</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1639" s="4">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B1639" s="2">
-        <v>342647080</v>
+        <v>1949730224</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1640" s="4">
-        <v>45198</v>
+        <v>45201</v>
       </c>
       <c r="B1640" s="2">
-        <v>1949730224</v>
+        <v>485433742</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1641" s="4">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B1641" s="2">
-        <v>485433742</v>
+        <v>481552930</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1642" s="4">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="B1642" s="2">
-        <v>481552930</v>
+        <v>299750872</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1643" s="4">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B1643" s="2">
-        <v>299750872</v>
+        <v>231483514</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1644" s="4">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B1644" s="2">
-        <v>231483514</v>
+        <v>462842747</v>
       </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1645" s="4">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B1645" s="2">
-        <v>462842747</v>
+        <v>473362532</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1646" s="4">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B1646" s="2">
-        <v>473362532</v>
+        <v>537158181</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1647" s="4">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B1647" s="2">
-        <v>537158181</v>
+        <v>742718677</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1648" s="4">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B1648" s="2">
-        <v>742718677</v>
+        <v>263761763</v>
       </c>
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1649" s="4">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B1649" s="2">
-        <v>263761763</v>
+        <v>481479942</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1650" s="4">
-        <v>45212</v>
+        <v>45216</v>
       </c>
       <c r="B1650" s="2">
-        <v>481479942</v>
+        <v>105335039</v>
       </c>
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1651" s="4">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B1651" s="2">
-        <v>105335039</v>
+        <v>377400892</v>
       </c>
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1652" s="4">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B1652" s="2">
-        <v>377400892</v>
+        <v>408936259</v>
       </c>
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1653" s="4">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B1653" s="2">
-        <v>408936259</v>
+        <v>309098095</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1654" s="4">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B1654" s="2">
-        <v>309098095</v>
+        <v>377369253</v>
       </c>
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1655" s="4">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B1655" s="2">
-        <v>377369253</v>
+        <v>413300073</v>
       </c>
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1656" s="4">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B1656" s="2">
-        <v>413300073</v>
+        <v>420549033</v>
       </c>
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1657" s="4">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B1657" s="2">
-        <v>420549033</v>
+        <v>313250237</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1658" s="4">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B1658" s="2">
-        <v>313250237</v>
+        <v>166513081</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1659" s="4">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B1659" s="2">
-        <v>166513081</v>
+        <v>284930870</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1660" s="4">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B1660" s="2">
-        <v>284930870</v>
+        <v>82497779</v>
       </c>
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1661" s="4">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B1661" s="2">
-        <v>82497779</v>
+        <v>392807702</v>
       </c>
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1662" s="4">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B1662" s="2">
-        <v>392807702</v>
+        <v>200946495</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1663" s="4">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B1663" s="2">
-        <v>200946495</v>
+        <v>497627731</v>
       </c>
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1664" s="4">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="B1664" s="2">
-        <v>497627731</v>
+        <v>599564077</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1665" s="4">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B1665" s="2">
-        <v>599564077</v>
+        <v>692886475</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1666" s="4">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="B1666" s="2">
-        <v>692886475</v>
+        <v>360809034</v>
       </c>
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1667" s="4">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B1667" s="2">
-        <v>360809034</v>
+        <v>595533895</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1668" s="4">
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="B1668" s="2">
-        <v>595533895</v>
+        <v>365420084</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1669" s="4">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="B1669" s="2">
-        <v>365420084</v>
+        <v>564550038</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1670" s="4">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B1670" s="2">
-        <v>564550038</v>
+        <v>554711625</v>
       </c>
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1671" s="4">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B1671" s="2">
-        <v>554711625</v>
+        <v>210082934</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1672" s="4">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B1672" s="2">
-        <v>210082934</v>
+        <v>439290233</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1673" s="4">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B1673" s="2">
-        <v>439290233</v>
+        <v>618092340</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1674" s="4">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B1674" s="2">
-        <v>618092340</v>
+        <v>348483311</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1675" s="4">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="B1675" s="2">
-        <v>348483311</v>
+        <v>267608303</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1676" s="4">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="B1676" s="2">
-        <v>267608303</v>
+        <v>122706970</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1677" s="4">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B1677" s="2">
-        <v>122706970</v>
+        <v>582669097</v>
       </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1678" s="4">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B1678" s="2">
-        <v>582669097</v>
+        <v>269145948</v>
       </c>
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1679" s="4">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="B1679" s="2">
-        <v>269145948</v>
+        <v>56209332</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1680" s="4">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="B1680" s="2">
-        <v>56209332</v>
+        <v>291564305</v>
       </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1681" s="4">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B1681" s="2">
-        <v>291564305</v>
+        <v>431738572</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1682" s="4">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B1682" s="2">
-        <v>431738572</v>
+        <v>253863859</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1683" s="4">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B1683" s="2">
-        <v>253863859</v>
+        <v>513185198</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1684" s="4">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B1684" s="2">
-        <v>513185198</v>
+        <v>802491989</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1685" s="4">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B1685" s="2">
-        <v>802491989</v>
+        <v>855564191</v>
       </c>
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1686" s="4">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="B1686" s="2">
-        <v>855564191</v>
+        <v>308581925</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1687" s="4">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B1687" s="2">
-        <v>308581925</v>
+        <v>431818983</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1688" s="4">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B1688" s="2">
-        <v>431818983</v>
+        <v>636483534</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1689" s="4">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B1689" s="2">
-        <v>636483534</v>
+        <v>310164018</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1690" s="4">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B1690" s="2">
-        <v>310164018</v>
+        <v>395008376</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1691" s="4">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="B1691" s="2">
-        <v>395008376</v>
+        <v>208863552</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1692" s="4">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B1692" s="2">
-        <v>208863552</v>
+        <v>297860229</v>
       </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1693" s="4">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B1693" s="2">
-        <v>297860229</v>
+        <v>476813780</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1694" s="4">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B1694" s="2">
-        <v>476813780</v>
+        <v>233171874</v>
       </c>
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1695" s="4">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B1695" s="2">
-        <v>233171874</v>
+        <v>423752213</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1696" s="4">
-        <v>45282</v>
+        <v>45286</v>
       </c>
       <c r="B1696" s="2">
-        <v>423752213</v>
+        <v>283548071</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1697" s="4">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="B1697" s="2">
-        <v>283548071</v>
+        <v>214346735</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1698" s="4">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B1698" s="2">
-        <v>214346735</v>
+        <v>252530778</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1699" s="4">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B1699" s="2">
-        <v>252530778</v>
+        <v>376482557</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1700" s="4">
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="B1700" s="2">
-        <v>376482557</v>
+        <v>122364297</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1701" s="4">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B1701" s="2">
-        <v>122364297</v>
+        <v>279416726</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1702" s="4">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B1702" s="2">
-        <v>279416726</v>
+        <v>325009554</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1703" s="4">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B1703" s="2">
-        <v>325009554</v>
+        <v>211743145</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1704" s="4">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="B1704" s="2">
-        <v>211743145</v>
+        <v>292598563</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1705" s="4">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B1705" s="2">
-        <v>292598563</v>
+        <v>379221407</v>
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1706" s="4">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B1706" s="2">
-        <v>379221407</v>
+        <v>322630010</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1707" s="4">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B1707" s="2">
-        <v>322630010</v>
+        <v>534862687</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1708" s="4">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B1708" s="2">
-        <v>534862687</v>
+        <v>414264115</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1709" s="4">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B1709" s="2">
-        <v>414264115</v>
+        <v>265543049</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1710" s="4">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B1710" s="2">
-        <v>265543049</v>
+        <v>187795963</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1711" s="4">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B1711" s="2">
-        <v>187795963</v>
+        <v>405718685</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1712" s="4">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B1712" s="2">
-        <v>405718685</v>
+        <v>219417218</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1713" s="4">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B1713" s="2">
-        <v>219417218</v>
+        <v>334452022</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1714" s="4">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B1714" s="2">
-        <v>334452022</v>
+        <v>263105306</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1715" s="4">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B1715" s="2">
-        <v>263105306</v>
+        <v>425570796</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1716" s="4">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B1716" s="2">
-        <v>425570796</v>
+        <v>349020770</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1717" s="4">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B1717" s="2">
-        <v>349020770</v>
+        <v>623121320</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1718" s="4">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B1718" s="2">
-        <v>623121320</v>
+        <v>147905454</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1719" s="4">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B1719" s="2">
-        <v>147905454</v>
+        <v>270745262</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1720" s="4">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B1720" s="2">
-        <v>270745262</v>
+        <v>230331375</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1721" s="4">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B1721" s="2">
-        <v>230331375</v>
+        <v>444306834</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1722" s="4">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B1722" s="2">
-        <v>444306834</v>
+        <v>135005277</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1723" s="4">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B1723" s="2">
-        <v>135005277</v>
+        <v>310664214</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1724" s="4">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B1724" s="2">
-        <v>310664214</v>
+        <v>427174575</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1725" s="4">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B1725" s="2">
-        <v>427174575</v>
+        <v>309817167</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1726" s="4">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B1726" s="2">
-        <v>309817167</v>
+        <v>288953089</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1727" s="4">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B1727" s="2">
-        <v>288953089</v>
+        <v>147875253</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1728" s="4">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B1728" s="2">
-        <v>147875253</v>
+        <v>538614169</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1729" s="4">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B1729" s="2">
-        <v>538614169</v>
+        <v>369082491</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1730" s="4">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B1730" s="2">
-        <v>369082491</v>
+        <v>439669751</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1731" s="4">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B1731" s="2">
-        <v>439669751</v>
+        <v>282960684</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1732" s="4">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B1732" s="2">
-        <v>282960684</v>
+        <v>249408972</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1733" s="4">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B1733" s="2">
-        <v>249408972</v>
+        <v>7834014</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1734" s="4">
-        <v>45339</v>
+        <v>45341</v>
       </c>
       <c r="B1734" s="2">
-        <v>7834014</v>
+        <v>175799952</v>
       </c>
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1735" s="4">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="B1735" s="2">
-        <v>175799952</v>
+        <v>425752300</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1736" s="4">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B1736" s="2">
-        <v>425752300</v>
+        <v>519874889</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1737" s="4">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B1737" s="2">
-        <v>519874889</v>
+        <v>312466885</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1738" s="4">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B1738" s="2">
-        <v>312466885</v>
+        <v>413475400</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1739" s="4">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B1739" s="2">
-        <v>413475400</v>
+        <v>363981700</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1740" s="4">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B1740" s="2">
-        <v>363981700</v>
+        <v>398776220</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1741" s="4">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B1741" s="2">
-        <v>398776220</v>
+        <v>194430862</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1742" s="4">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B1742" s="2">
-        <v>194430862</v>
+        <v>342220651</v>
       </c>
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1743" s="4">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B1743" s="2">
-        <v>342220651</v>
+        <v>289564731</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1744" s="4">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B1744" s="2">
-        <v>289564731</v>
+        <v>260285086</v>
       </c>
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1745" s="4">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B1745" s="2">
-        <v>260285086</v>
+        <v>288945777</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1746" s="4">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B1746" s="2">
-        <v>288945777</v>
+        <v>445891195</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1747" s="4">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B1747" s="2">
-        <v>445891195</v>
+        <v>432524318</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1748" s="4">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B1748" s="2">
-        <v>432524318</v>
+        <v>221559619</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1749" s="4">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B1749" s="2">
-        <v>221559619</v>
+        <v>304210450</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1750" s="4">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B1750" s="2">
-        <v>304210450</v>
+        <v>457180418</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1751" s="4">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B1751" s="2">
-        <v>457180418</v>
+        <v>521280750</v>
       </c>
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1752" s="4">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B1752" s="2">
-        <v>521280750</v>
+        <v>328742326</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1753" s="4">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B1753" s="2">
-        <v>328742326</v>
+        <v>228035086</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1754" s="4">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B1754" s="2">
-        <v>228035086</v>
+        <v>626180920</v>
       </c>
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1755" s="4">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B1755" s="2">
-        <v>626180920</v>
+        <v>525206632</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1756" s="4">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B1756" s="2">
-        <v>525206632</v>
+        <v>266627066</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1757" s="4">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B1757" s="2">
-        <v>266627066</v>
+        <v>395217089</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1758" s="4">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B1758" s="2">
-        <v>395217089</v>
+        <v>231737256</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1759" s="4">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B1759" s="2">
-        <v>231737256</v>
+        <v>470971691</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1760" s="4">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B1760" s="2">
-        <v>470971691</v>
+        <v>221059142</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1761" s="4">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B1761" s="2">
-        <v>221059142</v>
+        <v>334082161</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1762" s="4">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B1762" s="2">
-        <v>334082161</v>
+        <v>282677673</v>
       </c>
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1763" s="4">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B1763" s="2">
-        <v>282677673</v>
+        <v>675670370</v>
       </c>
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1764" s="4">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B1764" s="2">
-        <v>675670370</v>
+        <v>501009129</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1765" s="4">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B1765" s="2">
-        <v>501009129</v>
+        <v>314425952</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1766" s="4">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B1766" s="2">
-        <v>314425952</v>
+        <v>384724157</v>
       </c>
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1767" s="4">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B1767" s="2">
-        <v>384724157</v>
+        <v>334271208</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1768" s="4">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B1768" s="2">
-        <v>334271208</v>
+        <v>495577749</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1769" s="4">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B1769" s="2">
-        <v>495577749</v>
+        <v>278757625</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1770" s="4">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B1770" s="2">
-        <v>278757625</v>
+        <v>225234827</v>
       </c>
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1771" s="4">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B1771" s="2">
-        <v>225234827</v>
+        <v>213538144</v>
       </c>
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1772" s="4">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B1772" s="2">
-        <v>213538144</v>
+        <v>260087475</v>
       </c>
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1773" s="4">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B1773" s="2">
-        <v>260087475</v>
+        <v>294873526</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1774" s="4">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B1774" s="2">
-        <v>294873526</v>
+        <v>331016398</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1775" s="4">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B1775" s="2">
-        <v>331016398</v>
+        <v>248460159</v>
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1776" s="4">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B1776" s="2">
-        <v>248460159</v>
+        <v>429115221</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1777" s="4">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B1777" s="2">
-        <v>429115221</v>
+        <v>428768555</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1778" s="4">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B1778" s="2">
-        <v>428768555</v>
+        <v>407329558</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1779" s="4">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B1779" s="2">
-        <v>407329558</v>
+        <v>272515238</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1780" s="4">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B1780" s="2">
-        <v>272515238</v>
+        <v>338166952</v>
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1781" s="4">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B1781" s="2">
-        <v>338166952</v>
+        <v>198192727</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1782" s="4">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B1782" s="2">
-        <v>198192727</v>
+        <v>376196067</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1783" s="4">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B1783" s="2">
-        <v>376196067</v>
+        <v>64166907</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1784" s="4">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B1784" s="2">
-        <v>64166907</v>
+        <v>303830791</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1785" s="4">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B1785" s="2">
-        <v>303830791</v>
+        <v>470289936</v>
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1786" s="4">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="B1786" s="2">
-        <v>470289936</v>
+        <v>345718006</v>
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1787" s="4">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B1787" s="2">
-        <v>345718006</v>
+        <v>316441482</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1788" s="4">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B1788" s="2">
-        <v>316441482</v>
+        <v>335361240</v>
       </c>
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1789" s="4">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B1789" s="2">
-        <v>335361240</v>
+        <v>349178357</v>
       </c>
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1790" s="4">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B1790" s="2">
-        <v>349178357</v>
+        <v>522625517</v>
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1791" s="4">
-        <v>45422</v>
+        <v>45426</v>
       </c>
       <c r="B1791" s="2">
-        <v>522625517</v>
+        <v>269338758</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1792" s="4">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B1792" s="2">
-        <v>269338758</v>
+        <v>693754668</v>
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1793" s="4">
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="B1793" s="2">
-        <v>693754668</v>
+        <v>357447827</v>
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1794" s="4">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="B1794" s="2">
-        <v>357447827</v>
+        <v>342374748</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1795" s="4">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="B1795" s="2">
-        <v>342374748</v>
+        <v>274823601</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1796" s="4">
-        <v>45432</v>
+        <v>45433</v>
       </c>
       <c r="B1796" s="2">
-        <v>274823601</v>
+        <v>468870544</v>
       </c>
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1797" s="4">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="B1797" s="2">
-        <v>468870544</v>
+        <v>583262150</v>
       </c>
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1798" s="4">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B1798" s="2">
-        <v>583262150</v>
+        <v>472213297</v>
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1799" s="4">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B1799" s="2">
-        <v>472213297</v>
+        <v>464115858</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1800" s="4">
-        <v>45436</v>
+        <v>45439</v>
       </c>
       <c r="B1800" s="2">
-        <v>464115858</v>
+        <v>218751015</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1801" s="4">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B1801" s="2">
-        <v>218751015</v>
+        <v>156800046</v>
       </c>
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1802" s="4">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B1802" s="2">
-        <v>156800046</v>
+        <v>650798124</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1803" s="4">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B1803" s="2">
-        <v>650798124</v>
+        <v>176804067</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1804" s="4">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B1804" s="2">
-        <v>176804067</v>
+        <v>771187157</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1805" s="4">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="B1805" s="2">
-        <v>771187157</v>
+        <v>543400753</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1806" s="4">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B1806" s="2">
-        <v>543400753</v>
+        <v>572776530</v>
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1807" s="4">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B1807" s="2">
-        <v>572776530</v>
+        <v>323108548</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1808" s="4">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B1808" s="2">
-        <v>323108548</v>
+        <v>803432662</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1809" s="4">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="B1809" s="2">
-        <v>803432662</v>
+        <v>158738284</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1810" s="4">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B1810" s="2">
-        <v>158738284</v>
+        <v>706144697</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1811" s="4">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B1811" s="2">
-        <v>706144697</v>
+        <v>388879287</v>
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1812" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B1812" s="2">
-        <v>388879287</v>
+        <v>277124978</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1813" s="4">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B1813" s="2">
-        <v>277124978</v>
+        <v>372492428</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1814" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B1814" s="2">
-        <v>372492428</v>
+        <v>332973471</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1815" s="4">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B1815" s="2">
-        <v>332973471</v>
+        <v>138553485</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1816" s="4">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B1816" s="2">
-        <v>138553485</v>
+        <v>600669346</v>
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1817" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B1817" s="2">
-        <v>600669346</v>
+        <v>243796313</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1818" s="4">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B1818" s="2">
-        <v>243796313</v>
+        <v>263157748</v>
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1819" s="4">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B1819" s="2">
-        <v>263157748</v>
+        <v>342809594</v>
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1820" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B1820" s="2">
-        <v>342809594</v>
+        <v>295750566</v>
       </c>
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1821" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B1821" s="2">
-        <v>295750566</v>
+        <v>418506160</v>
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1822" s="4">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B1822" s="2">
-        <v>418506160</v>
+        <v>692205287</v>
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1823" s="4">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B1823" s="2">
-        <v>692205287</v>
+        <v>363697580</v>
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1824" s="4">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B1824" s="2">
-        <v>363697580</v>
+        <v>460033339</v>
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1825" s="4">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B1825" s="2">
-        <v>460033339</v>
+        <v>298410144</v>
       </c>
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1826" s="4">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B1826" s="2">
-        <v>298410144</v>
+        <v>211350440</v>
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1827" s="4">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B1827" s="2">
-        <v>211350440</v>
+        <v>503647373</v>
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1828" s="4">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B1828" s="2">
-        <v>503647373</v>
+        <v>196738385</v>
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1829" s="4">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B1829" s="2">
-        <v>196738385</v>
+        <v>416359504</v>
       </c>
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1830" s="4">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B1830" s="2">
-        <v>416359504</v>
+        <v>338534743</v>
       </c>
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1831" s="4">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B1831" s="2">
-        <v>338534743</v>
+        <v>483002781</v>
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1832" s="4">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B1832" s="2">
-        <v>483002781</v>
+        <v>339795786</v>
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1833" s="4">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B1833" s="2">
-        <v>339795786</v>
+        <v>336798163</v>
       </c>
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1834" s="4">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B1834" s="2">
-        <v>336798163</v>
+        <v>336812180</v>
       </c>
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1835" s="4">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B1835" s="2">
-        <v>336812180</v>
+        <v>356137759</v>
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1836" s="4">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B1836" s="2">
-        <v>356137759</v>
+        <v>157729227</v>
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1837" s="4">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B1837" s="2">
-        <v>157729227</v>
+        <v>402245280</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1838" s="4">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B1838" s="2">
-        <v>402245280</v>
+        <v>427460870</v>
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1839" s="4">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B1839" s="2">
-        <v>427460870</v>
+        <v>442672008</v>
       </c>
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1840" s="4">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B1840" s="2">
-        <v>442672008</v>
+        <v>150198874</v>
       </c>
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1841" s="4">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B1841" s="2">
-        <v>150198874</v>
+        <v>382235333</v>
       </c>
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1842" s="4">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B1842" s="2">
-        <v>382235333</v>
+        <v>415796626</v>
       </c>
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1843" s="4">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B1843" s="2">
-        <v>415796626</v>
+        <v>262657322</v>
       </c>
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1844" s="4">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B1844" s="2">
-        <v>262657322</v>
+        <v>677438022</v>
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1845" s="4">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B1845" s="2">
-        <v>677438022</v>
+        <v>341842060</v>
       </c>
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1846" s="4">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B1846" s="2">
-        <v>341842060</v>
+        <v>213688474</v>
       </c>
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1847" s="4">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B1847" s="2">
-        <v>213688474</v>
+        <v>367391582</v>
       </c>
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1848" s="4">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="B1848" s="2">
-        <v>367391582</v>
+        <v>336955963</v>
       </c>
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1849" s="4">
-        <v>45510</v>
+        <v>45512</v>
       </c>
       <c r="B1849" s="2">
-        <v>336955963</v>
+        <v>241194985</v>
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1850" s="4">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B1850" s="2">
-        <v>241194985</v>
+        <v>242921261</v>
       </c>
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1851" s="4">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B1851" s="2">
-        <v>242921261</v>
+        <v>284278163</v>
       </c>
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1852" s="4">
-        <v>45516</v>
+        <v>45517</v>
       </c>
       <c r="B1852" s="2">
-        <v>284278163</v>
+        <v>590953951</v>
       </c>
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1853" s="4">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B1853" s="2">
-        <v>590953951</v>
+        <v>502728890</v>
       </c>
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1854" s="4">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B1854" s="2">
-        <v>502728890</v>
+        <v>253032973</v>
       </c>
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1855" s="4">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B1855" s="2">
-        <v>253032973</v>
+        <v>175505783</v>
       </c>
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1856" s="4">
-        <v>45520</v>
+        <v>45524</v>
       </c>
       <c r="B1856" s="2">
-        <v>175505783</v>
+        <v>378117972</v>
       </c>
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1857" s="4">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B1857" s="2">
-        <v>378117972</v>
+        <v>1097950</v>
       </c>
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1858" s="4">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B1858" s="2">
-        <v>1097950</v>
+        <v>567334437</v>
       </c>
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1859" s="4">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B1859" s="2">
-        <v>567334437</v>
+        <v>59721195</v>
       </c>
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1860" s="4">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="B1860" s="2">
-        <v>59721195</v>
+        <v>269518580</v>
       </c>
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1861" s="4">
-        <v>45530</v>
+        <v>45531</v>
       </c>
       <c r="B1861" s="2">
-        <v>269518580</v>
+        <v>234380310</v>
       </c>
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1862" s="4">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B1862" s="2">
-        <v>234380310</v>
+        <v>812677330</v>
       </c>
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1863" s="4">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B1863" s="2">
-        <v>812677330</v>
+        <v>371456827</v>
       </c>
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1864" s="4">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B1864" s="2">
-        <v>371456827</v>
+        <v>271342350</v>
       </c>
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1865" s="4">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="B1865" s="2">
-        <v>271342350</v>
+        <v>510292964</v>
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1866" s="4">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B1866" s="2">
-        <v>510292964</v>
+        <v>241562658</v>
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1867" s="4">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B1867" s="2">
-        <v>241562658</v>
+        <v>244958411</v>
       </c>
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1868" s="4">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B1868" s="2">
-        <v>244958411</v>
+        <v>542192969</v>
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1869" s="4">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B1869" s="2">
-        <v>542192969</v>
+        <v>229578939</v>
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1870" s="4">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B1870" s="2">
-        <v>229578939</v>
+        <v>250705363</v>
       </c>
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1871" s="4">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B1871" s="2">
-        <v>250705363</v>
+        <v>497484034</v>
       </c>
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1872" s="4">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="B1872" s="2">
-        <v>497484034</v>
+        <v>267552545</v>
       </c>
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1873" s="4">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="B1873" s="2">
-        <v>267552545</v>
+        <v>838277847</v>
       </c>
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1874" s="4">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B1874" s="2">
-        <v>838277847</v>
+        <v>157907509</v>
       </c>
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1875" s="4">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B1875" s="2">
-        <v>157907509</v>
+        <v>155031214</v>
       </c>
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1876" s="4">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B1876" s="2">
-        <v>155031214</v>
+        <v>260559207</v>
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1877" s="4">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B1877" s="2">
-        <v>260559207</v>
+        <v>296245861</v>
       </c>
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1878" s="4">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="B1878" s="2">
-        <v>296245861</v>
+        <v>220828344</v>
       </c>
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1879" s="4">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B1879" s="2">
-        <v>220828344</v>
+        <v>127603108</v>
       </c>
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1880" s="4">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B1880" s="2">
-        <v>127603108</v>
+        <v>430620685</v>
       </c>
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1881" s="4">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B1881" s="2">
-        <v>430620685</v>
+        <v>611641523</v>
       </c>
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1882" s="4">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B1882" s="2">
-        <v>611641523</v>
+        <v>445831533</v>
       </c>
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1883" s="4">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B1883" s="2">
-        <v>445831533</v>
+        <v>260945674</v>
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1884" s="4">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B1884" s="2">
-        <v>260945674</v>
+        <v>200842929</v>
       </c>
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1885" s="4">
-        <v>45562</v>
+        <v>45563</v>
       </c>
       <c r="B1885" s="2">
-        <v>200842929</v>
+        <v>72179504</v>
       </c>
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1886" s="4">
-        <v>45563</v>
+        <v>45565</v>
       </c>
       <c r="B1886" s="2">
-        <v>72179504</v>
+        <v>489597343</v>
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1887" s="4">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B1887" s="2">
-        <v>489597343</v>
+        <v>349082234</v>
       </c>
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1888" s="4">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B1888" s="2">
-        <v>349082234</v>
+        <v>317490613</v>
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1889" s="4">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="B1889" s="2">
-        <v>317490613</v>
+        <v>193676681</v>
       </c>
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1890" s="4">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B1890" s="2">
-        <v>193676681</v>
+        <v>199309071</v>
       </c>
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1891" s="4">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B1891" s="2">
-        <v>199309071</v>
+        <v>181959285</v>
       </c>
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1892" s="4">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B1892" s="2">
-        <v>181959285</v>
+        <v>167988757</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1893" s="4">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B1893" s="2">
-        <v>167988757</v>
+        <v>265080695</v>
       </c>
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1894" s="4">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B1894" s="2">
-        <v>265080695</v>
+        <v>196413713</v>
       </c>
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1895" s="4">
-        <v>45575</v>
+        <v>45576</v>
       </c>
       <c r="B1895" s="2">
-        <v>196413713</v>
+        <v>216324043</v>
       </c>
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1896" s="4">
-        <v>45576</v>
+        <v>45580</v>
       </c>
       <c r="B1896" s="2">
-        <v>216324043</v>
+        <v>250031343</v>
       </c>
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1897" s="4">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B1897" s="2">
-        <v>250031343</v>
+        <v>84593810</v>
       </c>
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1898" s="4">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B1898" s="2">
-        <v>84593810</v>
+        <v>389877769</v>
       </c>
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1899" s="4">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B1899" s="2">
-        <v>389877769</v>
+        <v>293012144</v>
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1900" s="4">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B1900" s="2">
-        <v>293012144</v>
+        <v>331639786</v>
       </c>
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1901" s="4">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B1901" s="2">
-        <v>331639786</v>
+        <v>215836867</v>
       </c>
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1902" s="4">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B1902" s="2">
-        <v>215836867</v>
+        <v>348850555</v>
       </c>
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1903" s="4">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B1903" s="2">
-        <v>348850555</v>
+        <v>368534574</v>
       </c>
     </row>
     <row r="1904" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1904" s="4">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B1904" s="2">
-        <v>368534574</v>
+        <v>267778029</v>
       </c>
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1905" s="4">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B1905" s="2">
-        <v>267778029</v>
+        <v>460072615</v>
       </c>
     </row>
     <row r="1906" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1906" s="4">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="B1906" s="2">
-        <v>460072615</v>
+        <v>322737280</v>
       </c>
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1907" s="4">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B1907" s="2">
-        <v>322737280</v>
+        <v>178999065</v>
       </c>
     </row>
     <row r="1908" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1908" s="4">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B1908" s="2">
-        <v>178999065</v>
+        <v>99486171</v>
       </c>
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1909" s="4">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="B1909" s="2">
-        <v>99486171</v>
+        <v>501723432</v>
       </c>
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1910" s="4">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="B1910" s="2">
-        <v>501723432</v>
+        <v>470307798</v>
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1911" s="4">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B1911" s="2">
-        <v>470307798</v>
+        <v>440898997</v>
       </c>
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1912" s="4">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B1912" s="2">
-        <v>440898997</v>
+        <v>464273778</v>
       </c>
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1913" s="4">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="B1913" s="2">
-        <v>464273778</v>
+        <v>243991150</v>
       </c>
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1914" s="4">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="B1914" s="2">
-        <v>243991150</v>
+        <v>316383828</v>
       </c>
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1915" s="4">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B1915" s="2">
-        <v>316383828</v>
+        <v>349884985</v>
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1916" s="4">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B1916" s="2">
-        <v>349884985</v>
+        <v>195122503</v>
       </c>
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1917" s="4">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="B1917" s="2">
-        <v>195122503</v>
+        <v>288571213</v>
       </c>
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1918" s="4">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B1918" s="2">
-        <v>288571213</v>
+        <v>369078358</v>
       </c>
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1919" s="4">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="B1919" s="2">
-        <v>369078358</v>
+        <v>221348945</v>
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1920" s="4">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B1920" s="2">
-        <v>221348945</v>
+        <v>256146881</v>
       </c>
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1921" s="4">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="B1921" s="2">
-        <v>256146881</v>
+        <v>498385465</v>
       </c>
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1922" s="4">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="B1922" s="2">
-        <v>498385465</v>
+        <v>366593155</v>
       </c>
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1923" s="4">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="B1923" s="2">
-        <v>366593155</v>
+        <v>367612263</v>
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1924" s="4">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="B1924" s="2">
-        <v>367612263</v>
+        <v>413594429</v>
       </c>
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1925" s="4">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B1925" s="2">
-        <v>413594429</v>
+        <v>258532648</v>
       </c>
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1926" s="4">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="B1926" s="2">
-        <v>258532648</v>
+        <v>432987322</v>
       </c>
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1927" s="4">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="B1927" s="2">
-        <v>432987322</v>
+        <v>480127883</v>
       </c>
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1928" s="4">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="B1928" s="2">
-        <v>480127883</v>
+        <v>440807239</v>
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1929" s="4">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="B1929" s="2">
-        <v>440807239</v>
+        <v>267959550</v>
       </c>
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1930" s="4">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B1930" s="2">
-        <v>267959550</v>
+        <v>615120604</v>
       </c>
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1931" s="4">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="B1931" s="2">
-        <v>615120604</v>
+        <v>420164612</v>
       </c>
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1932" s="4">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="B1932" s="2">
-        <v>420164612</v>
+        <v>288555236</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1933" s="4">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="B1933" s="2">
-        <v>288555236</v>
+        <v>279684851</v>
       </c>
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1934" s="4">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="B1934" s="2">
-        <v>279684851</v>
+        <v>468726563</v>
       </c>
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1935" s="4">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B1935" s="2">
-        <v>468726563</v>
+        <v>432497036</v>
       </c>
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1936" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="B1936" s="2">
-        <v>432497036</v>
+        <v>369526129</v>
       </c>
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1937" s="4">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="B1937" s="2">
-        <v>369526129</v>
+        <v>670090871</v>
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1938" s="4">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="B1938" s="2">
-        <v>670090871</v>
+        <v>229581365</v>
       </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1939" s="4">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B1939" s="2">
-        <v>229581365</v>
+        <v>375943724</v>
       </c>
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1940" s="4">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B1940" s="2">
-        <v>375943724</v>
+        <v>618094243</v>
       </c>
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1941" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B1941" s="2">
-        <v>618094243</v>
+        <v>319404572</v>
       </c>
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1942" s="4">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B1942" s="2">
-        <v>319404572</v>
+        <v>200961982</v>
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1943" s="4">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B1943" s="2">
-        <v>200961982</v>
+        <v>339099948</v>
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1944" s="4">
-        <v>45649</v>
+        <v>45653</v>
       </c>
       <c r="B1944" s="2">
-        <v>339099948</v>
+        <v>1377750</v>
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1945" s="4">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="B1945" s="2">
-        <v>1377750</v>
+        <v>140859318</v>
       </c>
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1946" s="4">
-        <v>45656</v>
+        <v>45659</v>
       </c>
       <c r="B1946" s="2">
-        <v>140859318</v>
+        <v>163295572</v>
       </c>
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1947" s="4">
-        <v>45659</v>
+        <v>45660</v>
       </c>
       <c r="B1947" s="2">
-        <v>163295572</v>
+        <v>236971652</v>
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1948" s="4">
-        <v>45660</v>
+        <v>45664</v>
       </c>
       <c r="B1948" s="2">
-        <v>236971652</v>
+        <v>129323107</v>
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1949" s="4">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B1949" s="2">
-        <v>129323107</v>
+        <v>145407931</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1950" s="4">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="B1950" s="2">
-        <v>145407931</v>
+        <v>161030139</v>
       </c>
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1951" s="4">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="B1951" s="2">
-        <v>161030139</v>
+        <v>209758914</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1952" s="4">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B1952" s="2">
-        <v>209758914</v>
+        <v>202041695</v>
       </c>
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1953" s="4">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B1953" s="2">
-        <v>202041695</v>
+        <v>224149456</v>
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1954" s="4">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B1954" s="2">
-        <v>224149456</v>
+        <v>294541966</v>
       </c>
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1955" s="4">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B1955" s="2">
-        <v>294541966</v>
+        <v>308309253</v>
       </c>
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1956" s="4">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B1956" s="2">
-        <v>308309253</v>
+        <v>289120159</v>
       </c>
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1957" s="4">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B1957" s="2">
-        <v>289120159</v>
+        <v>238206815</v>
       </c>
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1958" s="4">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B1958" s="2">
-        <v>238206815</v>
+        <v>159936825</v>
       </c>
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1959" s="4">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B1959" s="2">
-        <v>159936825</v>
+        <v>60679004</v>
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1960" s="4">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B1960" s="2">
-        <v>60679004</v>
+        <v>211940299</v>
       </c>
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1961" s="4">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B1961" s="2">
-        <v>211940299</v>
+        <v>494923110</v>
       </c>
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1962" s="4">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B1962" s="2">
-        <v>494923110</v>
+        <v>125610176</v>
       </c>
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1963" s="4">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B1963" s="2">
-        <v>125610176</v>
+        <v>293171306</v>
       </c>
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1964" s="4">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B1964" s="2">
-        <v>293171306</v>
+        <v>286081287</v>
       </c>
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1965" s="4">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B1965" s="2">
-        <v>286081287</v>
+        <v>212341564</v>
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1966" s="4">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B1966" s="2">
-        <v>212341564</v>
+        <v>53042309</v>
       </c>
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1967" s="4">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B1967" s="2">
-        <v>53042309</v>
+        <v>319151361</v>
       </c>
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1968" s="4">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B1968" s="2">
-        <v>319151361</v>
+        <v>466644941</v>
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1969" s="4">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B1969" s="2">
-        <v>466644941</v>
+        <v>223942497</v>
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1970" s="4">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B1970" s="2">
-        <v>223942497</v>
+        <v>132103623</v>
       </c>
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1971" s="4">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B1971" s="2">
-        <v>132103623</v>
+        <v>182768229</v>
       </c>
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1972" s="4">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B1972" s="2">
-        <v>182768229</v>
+        <v>268129809</v>
       </c>
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1973" s="4">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B1973" s="2">
-        <v>268129809</v>
+        <v>310236004</v>
       </c>
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1974" s="4">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B1974" s="2">
-        <v>310236004</v>
+        <v>176249361</v>
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1975" s="4">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B1975" s="2">
-        <v>176249361</v>
+        <v>414715772</v>
       </c>
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1976" s="4">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B1976" s="2">
-        <v>414715772</v>
+        <v>189249798</v>
       </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1977" s="4">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B1977" s="2">
-        <v>189249798</v>
+        <v>375212376</v>
       </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1978" s="4">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B1978" s="2">
-        <v>375212376</v>
+        <v>278441257</v>
       </c>
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1979" s="4">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B1979" s="2">
-        <v>278441257</v>
+        <v>345890468</v>
       </c>
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1980" s="4">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B1980" s="2">
-        <v>345890468</v>
+        <v>504811038</v>
       </c>
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1981" s="4">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B1981" s="2">
-        <v>504811038</v>
+        <v>151814507</v>
       </c>
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1982" s="4">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B1982" s="2">
-        <v>151814507</v>
+        <v>147681447</v>
       </c>
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1983" s="4">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B1983" s="2">
-        <v>147681447</v>
+        <v>388388147</v>
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1984" s="4">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B1984" s="2">
-        <v>388388147</v>
+        <v>338307220</v>
       </c>
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1985" s="4">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B1985" s="2">
-        <v>338307220</v>
+        <v>324301307</v>
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1986" s="4">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B1986" s="2">
-        <v>324301307</v>
+        <v>695706722</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1987" s="4">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B1987" s="2">
-        <v>695706722</v>
+        <v>430829980</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1988" s="4">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B1988" s="2">
-        <v>430829980</v>
+        <v>180362730</v>
       </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1989" s="4">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B1989" s="2">
-        <v>180362730</v>
+        <v>423157903</v>
       </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1990" s="4">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B1990" s="2">
-        <v>423157903</v>
+        <v>271179091</v>
       </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1991" s="4">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B1991" s="2">
-        <v>271179091</v>
+        <v>213299941</v>
       </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1992" s="4">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B1992" s="2">
-        <v>213299941</v>
+        <v>250695207</v>
       </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1993" s="4">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B1993" s="2">
-        <v>250695207</v>
+        <v>350723521</v>
       </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1994" s="4">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B1994" s="2">
-        <v>350723521</v>
+        <v>123036920</v>
       </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1995" s="4">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B1995" s="2">
-        <v>123036920</v>
+        <v>413322906</v>
       </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1996" s="4">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B1996" s="2">
-        <v>413322906</v>
+        <v>210561864</v>
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1997" s="4">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B1997" s="2">
-        <v>210561864</v>
+        <v>254120367</v>
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1998" s="4">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B1998" s="2">
-        <v>254120367</v>
+        <v>378622976</v>
       </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1999" s="4">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B1999" s="2">
-        <v>378622976</v>
+        <v>222035468</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2000" s="4">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B2000" s="2">
-        <v>222035468</v>
+        <v>306642450</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2001" s="4">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B2001" s="2">
-        <v>306642450</v>
+        <v>144998025</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2002" s="4">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="B2002" s="2">
-        <v>144998025</v>
+        <v>565621369</v>
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2003" s="4">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B2003" s="2">
-        <v>565621369</v>
+        <v>218836365</v>
       </c>
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2004" s="4">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B2004" s="2">
-        <v>218836365</v>
+        <v>207018109</v>
       </c>
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2005" s="4">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2005" s="2">
-        <v>207018109</v>
+        <v>127572704</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2006" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B2006" s="2">
-        <v>127572704</v>
+        <v>102525939</v>
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2007" s="4">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B2007" s="2">
-        <v>102525939</v>
+        <v>535414687</v>
       </c>
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2008" s="4">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B2008" s="2">
-        <v>535414687</v>
+        <v>318470231</v>
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2009" s="4">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B2009" s="2">
-        <v>318470231</v>
+        <v>286393415</v>
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2010" s="4">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="B2010" s="2">
-        <v>286393415</v>
+        <v>192165093</v>
       </c>
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2011" s="4">
-        <v>45751</v>
+        <v>45754</v>
       </c>
       <c r="B2011" s="2">
-        <v>192165093</v>
+        <v>154765962</v>
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2012" s="4">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B2012" s="2">
-        <v>154765962</v>
+        <v>378132502</v>
       </c>
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2013" s="4">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B2013" s="2">
-        <v>378132502</v>
+        <v>140823691</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2014" s="4">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B2014" s="2">
-        <v>140823691</v>
+        <v>290139458</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2015" s="4">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B2015" s="2">
-        <v>290139458</v>
+        <v>228075932</v>
       </c>
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2016" s="4">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B2016" s="2">
-        <v>228075932</v>
+        <v>370272737</v>
       </c>
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2017" s="4">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B2017" s="2">
-        <v>370272737</v>
+        <v>193433356</v>
       </c>
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2018" s="4">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B2018" s="2">
-        <v>193433356</v>
+        <v>421190841</v>
       </c>
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2019" s="4">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B2019" s="2">
-        <v>421190841</v>
+        <v>349141921</v>
       </c>
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2020" s="4">
-        <v>45768</v>
+        <v>45769</v>
       </c>
       <c r="B2020" s="2">
-        <v>349141921</v>
+        <v>568041531</v>
       </c>
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2021" s="4">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B2021" s="2">
-        <v>568041531</v>
+        <v>347364841</v>
       </c>
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2022" s="4">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B2022" s="2">
-        <v>347364841</v>
+        <v>209637445</v>
       </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2023" s="4">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B2023" s="2">
-        <v>209637445</v>
+        <v>166256023</v>
       </c>
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2024" s="4">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="B2024" s="2">
-        <v>166256023</v>
+        <v>78161343</v>
       </c>
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2025" s="4">
-        <v>45773</v>
+        <v>45775</v>
       </c>
       <c r="B2025" s="2">
-        <v>78161343</v>
+        <v>302504850</v>
       </c>
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2026" s="4">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B2026" s="2">
-        <v>302504850</v>
+        <v>269759469</v>
       </c>
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2027" s="4">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B2027" s="2">
-        <v>269759469</v>
+        <v>480312239</v>
       </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2028" s="4">
-        <v>45777</v>
-      </c>
-      <c r="B2028" s="2">
-        <v>480312239</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2029" s="1"/>
+      <c r="B2028" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C2027" xr:uid="{91FB794C-3964-4B11-BD97-AC746C428414}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>